--- a/Loading/Part/PartLocation.Template.xlsx
+++ b/Loading/Part/PartLocation.Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908"/>
   </bookViews>
   <sheets>
     <sheet name="PartLocation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Control</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Manufacturer Part #</t>
-  </si>
-  <si>
     <t>Replen Method</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
     <t>DefaultReplenishmentGenerationType</t>
   </si>
   <si>
-    <t>SuppliedByLocationIfTransferRequest</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>Bin ID</t>
   </si>
   <si>
@@ -88,13 +79,94 @@
   </si>
   <si>
     <t>New Bin</t>
+  </si>
+  <si>
+    <t>Key (Part ID)</t>
+  </si>
+  <si>
+    <t>Key (Location ID)</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>[KEY]</t>
+  </si>
+  <si>
+    <t>335:37</t>
+  </si>
+  <si>
+    <t>335:39</t>
+  </si>
+  <si>
+    <t>335:55</t>
+  </si>
+  <si>
+    <t>Manfacturer Part #</t>
+  </si>
+  <si>
+    <t>PreferredVendorID</t>
+  </si>
+  <si>
+    <t>SuppliedLocationIfTransferRequest</t>
+  </si>
+  <si>
+    <t>334:2</t>
+  </si>
+  <si>
+    <t>334:5</t>
+  </si>
+  <si>
+    <t>334:7</t>
+  </si>
+  <si>
+    <t>335:14</t>
+  </si>
+  <si>
+    <t>[GROUPROW]</t>
+  </si>
+  <si>
+    <t>336:2</t>
+  </si>
+  <si>
+    <t>336:4</t>
+  </si>
+  <si>
+    <t>337:2</t>
+  </si>
+  <si>
+    <t>337:4</t>
+  </si>
+  <si>
+    <t>339:2</t>
+  </si>
+  <si>
+    <t>339:38</t>
+  </si>
+  <si>
+    <t>339:14</t>
+  </si>
+  <si>
+    <t>339:16</t>
+  </si>
+  <si>
+    <t>339:8</t>
+  </si>
+  <si>
+    <t>337:8</t>
+  </si>
+  <si>
+    <t>339:40</t>
+  </si>
+  <si>
+    <t>339:57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +177,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,12 +218,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,122 +513,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16317"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="19" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
+      <c r="R1" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="7948" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J7948" s="2"/>
-    </row>
-    <row r="8518" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J8518" s="2"/>
-    </row>
-    <row r="9901" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J9901" s="3"/>
-    </row>
-    <row r="10224" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J10224" s="2"/>
-    </row>
-    <row r="11236" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J11236" s="2"/>
-    </row>
-    <row r="11430" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J11430" s="2"/>
-    </row>
-    <row r="11431" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J11431" s="2"/>
-    </row>
-    <row r="14273" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J14273" s="2"/>
-    </row>
-    <row r="16145" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J16145" s="2"/>
-    </row>
-    <row r="16316" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J16316" s="2"/>
-    </row>
-    <row r="16317" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J16317" s="2"/>
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -542,33 +662,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Loading/Part/PartLocation.Template.xlsx
+++ b/Loading/Part/PartLocation.Template.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
